--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24195" windowHeight="6780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="DoomCouncilInfo" sheetId="1" r:id="rId1"/>
@@ -1053,7 +1053,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1143,10 +1143,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>80000000001</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>80000000002</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -1160,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>80000000003</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>80000000004</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="DoomCouncilInfo" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>success_rate</t>
+  </si>
+  <si>
     <t>cost_reputation</t>
   </si>
   <si>
@@ -53,10 +56,16 @@
     <t>long</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>通过率</t>
   </si>
   <si>
     <t>消耗的声望</t>
@@ -1048,25 +1057,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="25.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="38.625" customWidth="1"/>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="1" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="38.625" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
+    <col min="8" max="8" width="42.875" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1088,85 +1097,100 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1000000001</v>
       </c>
       <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1000100001</v>
       </c>
       <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
+      <c r="H5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="26355" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="DoomCouncilInfo" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1161,7 +1161,10 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1181,7 +1184,10 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>3</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26355" windowHeight="12045"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="DoomCouncilInfo" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1158,7 +1158,7 @@
         <v>1000000001</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>1000100001</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
         <v>0</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="DoomCouncilInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,12 @@
     <t>icon_res</t>
   </si>
   <si>
+    <t>class_entity_name</t>
+  </si>
+  <si>
+    <t>class_entity_data</t>
+  </si>
+  <si>
     <t>name[language]</t>
   </si>
   <si>
@@ -77,6 +83,12 @@
     <t>图标名字</t>
   </si>
   <si>
+    <t>实例名字</t>
+  </si>
+  <si>
+    <t>实例参数</t>
+  </si>
+  <si>
     <t>名字-中文</t>
   </si>
   <si>
@@ -86,7 +98,16 @@
     <t>备注</t>
   </si>
   <si>
+    <t>DoomCouncilEntityMoreCrystal</t>
+  </si>
+  <si>
+    <t>Conquer</t>
+  </si>
+  <si>
     <t>想要更多魔晶！-下次征服模式获得的魔晶翻倍</t>
+  </si>
+  <si>
+    <t>DoomCouncilEntityMoreExp</t>
   </si>
   <si>
     <t>想要更多经验！-下次征服模式获得的经验翻倍</t>
@@ -1057,25 +1078,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="38.625" customWidth="1"/>
-    <col min="7" max="7" width="30.5" customWidth="1"/>
-    <col min="8" max="8" width="42.875" customWidth="1"/>
-    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="6" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="42.875" customWidth="1"/>
+    <col min="11" max="11" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,60 +1122,78 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1000000001</v>
       </c>
@@ -1166,17 +1206,23 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
+      <c r="J4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1000100001</v>
       </c>
@@ -1189,14 +1235,20 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
+      <c r="J5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>class_entity_data</t>
   </si>
   <si>
+    <t>unlock_id</t>
+  </si>
+  <si>
     <t>name[language]</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>实例参数</t>
   </si>
   <si>
+    <t>解锁ID</t>
+  </si>
+  <si>
     <t>名字-中文</t>
   </si>
   <si>
@@ -98,6 +104,18 @@
     <t>备注</t>
   </si>
   <si>
+    <t>ui_icon_1</t>
+  </si>
+  <si>
+    <t>DoomCouncilEntityRename</t>
+  </si>
+  <si>
+    <t>想要给魔物换个新名字！</t>
+  </si>
+  <si>
+    <t>想要给自己换个新名字！</t>
+  </si>
+  <si>
     <t>DoomCouncilEntityMoreCrystal</t>
   </si>
   <si>
@@ -111,6 +129,30 @@
   </si>
   <si>
     <t>想要更多经验！-下次征服模式获得的经验翻倍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoomCouncilEntityReincarnation </t>
+  </si>
+  <si>
+    <t>想要转生成人类！</t>
+  </si>
+  <si>
+    <t>想要转生成骷髅！</t>
+  </si>
+  <si>
+    <t>想要转生成史莱姆！</t>
+  </si>
+  <si>
+    <t>想要转生成魅魔！</t>
+  </si>
+  <si>
+    <t>想要转生成牛头人！</t>
+  </si>
+  <si>
+    <t>想要转生成哥布林！</t>
+  </si>
+  <si>
+    <t>想要转生成兽人！</t>
   </si>
 </sst>
 </file>
@@ -726,8 +768,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,26 +1123,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F13" sqref="F13"/>
+      <selection pane="topRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="10" max="10" width="42.875" customWidth="1"/>
-    <col min="11" max="11" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="41.375" customWidth="1"/>
+    <col min="7" max="8" width="30.375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="42.875" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,130 +1174,453 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
-        <v>1000000001</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100200002</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>1000100001</v>
-      </c>
-      <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100200003</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
+      <c r="K5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1"/>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>1000000001</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>100001</v>
+      </c>
+      <c r="J6">
+        <v>100002</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>1000100001</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>100003</v>
+      </c>
+      <c r="J7">
+        <v>100004</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>1000200001</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>300100201</v>
+      </c>
+      <c r="I8">
+        <v>200001</v>
+      </c>
+      <c r="J8">
+        <v>200002</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>1000200002</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>300200201</v>
+      </c>
+      <c r="I9">
+        <v>200003</v>
+      </c>
+      <c r="J9">
+        <v>200004</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>1000200003</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>300300201</v>
+      </c>
+      <c r="I10">
+        <v>200005</v>
+      </c>
+      <c r="J10">
+        <v>200006</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>1000200004</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>300400201</v>
+      </c>
+      <c r="I11">
+        <v>200007</v>
+      </c>
+      <c r="J11">
+        <v>200008</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>1000200005</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>300500201</v>
+      </c>
+      <c r="I12">
+        <v>200009</v>
+      </c>
+      <c r="J12">
+        <v>200010</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>1000200006</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>300600201</v>
+      </c>
+      <c r="I13">
+        <v>200011</v>
+      </c>
+      <c r="J13">
+        <v>200012</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>1000200007</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>300700201</v>
+      </c>
+      <c r="I14">
+        <v>200013</v>
+      </c>
+      <c r="J14">
+        <v>200014</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="27" ht="15" customHeight="1"/>
     <row r="28" ht="15" customHeight="1"/>
     <row r="29" ht="15" customHeight="1"/>
@@ -1262,7 +1631,7 @@
     <row r="34" ht="15" customHeight="1"/>
     <row r="35" ht="15" customHeight="1"/>
     <row r="36" ht="15" customHeight="1"/>
-    <row r="68" ht="12" customHeight="1"/>
+    <row r="37" ht="15" customHeight="1"/>
     <row r="69" ht="12" customHeight="1"/>
     <row r="70" ht="12" customHeight="1"/>
     <row r="71" ht="12" customHeight="1"/>
@@ -1271,6 +1640,7 @@
     <row r="74" ht="12" customHeight="1"/>
     <row r="75" ht="12" customHeight="1"/>
     <row r="76" ht="12" customHeight="1"/>
+    <row r="77" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_doom_council_info[终焉议会信息].xlsx
@@ -131,7 +131,7 @@
     <t>想要更多经验！-下次征服模式获得的经验翻倍</t>
   </si>
   <si>
-    <t xml:space="preserve">DoomCouncilEntityReincarnation </t>
+    <t>DoomCouncilEntityReincarnation</t>
   </si>
   <si>
     <t>想要转生成人类！</t>
@@ -1128,7 +1128,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K19" sqref="K19"/>
+      <selection pane="topRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
